--- a/Results/UK/Manchester/Manchester-1.xlsx
+++ b/Results/UK/Manchester/Manchester-1.xlsx
@@ -424,7 +424,7 @@
         <v>oneday</v>
       </c>
       <c r="B2" t="str">
-        <v>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjC_LGBmP2CAxUZkmgJHb2MCCMYABAAGgJ3Zg&amp;ase=2&amp;gclid=EAIaIQobChMIwvyxgZj9ggMVGZJoCR29jAgjEBAYASAAEgK8uvD_BwE&amp;sig=AOD64_2R-nyJ75JYjF-T4IcOD5oHOOMTcw&amp;adurl&amp;ctype=99&amp;nis=4&amp;ved=2ahUKEwjIpKaBmP2CAxXVZPYIHTGADDMQ8PwKegQIABAo</v>
+        <v>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiw-uz7mf2CAxWUklAGHdC5AgMYABAAGgJkZw&amp;ase=2&amp;gclid=EAIaIQobChMIsPrs-5n9ggMVlJJQBh3QuQIDEBAYASAAEgLvw_D_BwE&amp;sig=AOD64_335GQTKc_zIba87RwvHZT0HStZ7Q&amp;adurl&amp;ctype=99</v>
       </c>
       <c r="C2" t="str">
         <v>Manchester</v>
